--- a/xlsx/Wayback Machine_intext.xlsx
+++ b/xlsx/Wayback Machine_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>Wayback Machine</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Archive.is</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Wayback Machine</t>
+    <t>政策_政策_维基百科_Wayback Machine</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ArXiv</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>數位圖書館</t>
+    <t>数位图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8A%A1</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9</t>
   </si>
   <si>
-    <t>非營利</t>
+    <t>非营利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E6%96%AF%E7%89%B9%C2%B7%E5%8D%A1%E5%88%A9</t>
   </si>
   <si>
-    <t>布魯斯特·卡利</t>
+    <t>布鲁斯特·卡利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%8D%E5%AD%97%E8%8A%82</t>
@@ -113,25 +113,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9-%E5%A5%A7%E6%96%AF%E4%B8%81%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>卡利-奧斯丁基金會</t>
+    <t>卡利-奥斯丁基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BitTorrent_(%E8%BD%AF%E4%BB%B6)</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E7%A7%91%E5%AD%B8%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>基督科學教會</t>
+    <t>基督科学教会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Rocky_and_Bullwinkle_Show</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9B%B8%E6%8E%83%E6%8F%8F</t>
   </si>
   <si>
-    <t>圖書掃描</t>
+    <t>图书扫描</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PDF</t>
@@ -179,9 +179,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
   </si>
   <si>
@@ -215,13 +212,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>荷蘭語</t>
+    <t>荷兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AF%AD</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E5%AE%B6%E6%AA%94%E6%A1%88%E9%A4%A8</t>
   </si>
   <si>
-    <t>英國國家檔案館</t>
+    <t>英国国家档案馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UK_Government_Web_Archive</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/Google%E5%9C%96%E6%9B%B8</t>
   </si>
   <si>
-    <t>Google圖書</t>
+    <t>Google图书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Archive_Team</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E8%9C%98%E8%9B%9B</t>
   </si>
   <si>
-    <t>網路蜘蛛</t>
+    <t>网路蜘蛛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E4%B9%A6</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%BF%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>平板電腦</t>
+    <t>平板电脑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/SoftBook</t>
@@ -719,19 +716,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E7%A9%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>青空文庫</t>
+    <t>青空文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>亞馬遜公司</t>
+    <t>亚马逊公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%AB%BE%E6%9B%B8%E5%BA%97</t>
   </si>
   <si>
-    <t>巴諾書店</t>
+    <t>巴诺书店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%95%8C</t>
@@ -1941,7 +1938,7 @@
         <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G29" t="n">
         <v>49</v>
@@ -1967,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1996,10 +1993,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2025,10 +2022,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2054,10 +2051,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2083,10 +2080,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2112,10 +2109,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2141,10 +2138,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2170,10 +2167,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2199,10 +2196,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2228,10 +2225,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2257,10 +2254,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2286,10 +2283,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2315,10 +2312,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2344,10 +2341,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2373,10 +2370,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -2402,10 +2399,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -2431,10 +2428,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2460,10 +2457,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2489,10 +2486,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2518,10 +2515,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2547,10 +2544,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2576,10 +2573,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2634,10 +2631,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2663,10 +2660,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2692,10 +2689,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2721,10 +2718,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2750,10 +2747,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2779,10 +2776,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2808,10 +2805,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2837,10 +2834,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2866,10 +2863,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2895,10 +2892,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2924,10 +2921,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2953,10 +2950,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2982,10 +2979,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3011,10 +3008,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3040,10 +3037,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3069,10 +3066,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3098,10 +3095,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3127,10 +3124,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3156,10 +3153,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -3185,10 +3182,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3214,10 +3211,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3243,10 +3240,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3272,10 +3269,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3301,10 +3298,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3330,10 +3327,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3359,10 +3356,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3388,10 +3385,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3417,10 +3414,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3446,10 +3443,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3475,10 +3472,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3504,10 +3501,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3533,10 +3530,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3562,10 +3559,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3591,10 +3588,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3620,10 +3617,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3649,10 +3646,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3678,10 +3675,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3707,10 +3704,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3736,10 +3733,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3765,10 +3762,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3794,10 +3791,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3823,10 +3820,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3852,10 +3849,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3881,10 +3878,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3910,10 +3907,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -3939,10 +3936,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3968,10 +3965,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -3997,10 +3994,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4026,10 +4023,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4055,10 +4052,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4084,10 +4081,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4113,10 +4110,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4142,10 +4139,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4171,10 +4168,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4200,10 +4197,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4229,10 +4226,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4258,10 +4255,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4287,10 +4284,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4316,10 +4313,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4345,10 +4342,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4374,10 +4371,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4403,10 +4400,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4432,10 +4429,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4461,10 +4458,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>6</v>
@@ -4490,10 +4487,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4519,10 +4516,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4548,10 +4545,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>116</v>
+      </c>
+      <c r="F119" t="s">
         <v>117</v>
-      </c>
-      <c r="F119" t="s">
-        <v>118</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4577,10 +4574,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4606,10 +4603,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4635,10 +4632,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>234</v>
+      </c>
+      <c r="F122" t="s">
         <v>235</v>
-      </c>
-      <c r="F122" t="s">
-        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4664,10 +4661,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
-      </c>
-      <c r="F123" t="s">
-        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4693,10 +4690,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
         <v>239</v>
-      </c>
-      <c r="F124" t="s">
-        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4722,10 +4719,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
         <v>241</v>
-      </c>
-      <c r="F125" t="s">
-        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -4751,10 +4748,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126" t="s">
         <v>243</v>
-      </c>
-      <c r="F126" t="s">
-        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -4780,10 +4777,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -4809,10 +4806,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
